--- a/Experimentelles/Ausgewaehlte_Daten/Vergleich_Kapazitäten.xlsx
+++ b/Experimentelles/Ausgewaehlte_Daten/Vergleich_Kapazitäten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -295,20 +295,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -370,9 +356,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$5:$G$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$C$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$C$5:$F$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>LATP</c:v>
                 </c:pt>
@@ -384,19 +377,23 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLTO</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LiCoO2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$6:$G$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$C$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$C$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>87.570128589402685</c:v>
                 </c:pt>
@@ -408,13 +405,30 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>93.936395386842207</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Tabelle1!$G$6</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -427,11 +441,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="540476120"/>
-        <c:axId val="540476512"/>
+        <c:axId val="221646400"/>
+        <c:axId val="221646792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540476120"/>
+        <c:axId val="221646400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +488,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540476512"/>
+        <c:crossAx val="221646792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540476512"/>
+        <c:axId val="221646792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +547,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540476120"/>
+        <c:crossAx val="221646400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +836,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -945,76 +959,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LiCoO2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$M$6:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1024,11 +968,99 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="682590032"/>
-        <c:axId val="682591208"/>
+        <c:axId val="398094016"/>
+        <c:axId val="398094408"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$M$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>LiCoO2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$M$6:$M$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682590032"/>
+        <c:axId val="398094016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1102,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682591208"/>
+        <c:crossAx val="398094408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682591208"/>
+        <c:axId val="398094408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1161,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682590032"/>
+        <c:crossAx val="398094016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2639,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
